--- a/project.xlsx
+++ b/project.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Websites\fifteen-express-ejs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Websites\fifteen-express-ejs-on-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$A$1:$D$704</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t>TC Number</t>
   </si>
@@ -174,15 +173,6 @@
   </si>
   <si>
     <t>Automated on-server</t>
-  </si>
-  <si>
-    <t>No problems detected with HTML linter</t>
-  </si>
-  <si>
-    <t>No problems detected with Bootstrap linter</t>
-  </si>
-  <si>
-    <t>No problems detected with CSS linter</t>
   </si>
   <si>
     <t>No broken links</t>
@@ -365,13 +355,28 @@
   </si>
   <si>
     <t>Set up client-side test automation</t>
+  </si>
+  <si>
+    <t>EJS Linter</t>
+  </si>
+  <si>
+    <t>HTML linter</t>
+  </si>
+  <si>
+    <t>Bootstrap linter</t>
+  </si>
+  <si>
+    <t>CSS linter</t>
+  </si>
+  <si>
+    <t>JS Linter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +388,21 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,13 +438,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,3733 +767,3734 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.7109375" customWidth="1"/>
-    <col min="4" max="4" width="124.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="124.28515625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>108</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>109</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>111</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>113</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>114</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>115</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>116</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>117</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>118</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>121</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>122</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>124</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>125</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>126</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>127</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>128</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>129</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>130</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>131</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>132</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>133</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>134</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>135</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>136</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>137</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>138</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>139</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>140</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>118</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>119</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>131</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>137</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>138</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>140</v>
-      </c>
-      <c r="C41" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>286</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>287</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>297</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>305</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>310</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>317</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>323</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>325</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>327</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>329</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>330</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>337</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>338</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>340</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>341</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>344</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>345</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>347</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>348</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>349</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>350</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>351</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>353</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>354</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>355</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>356</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="4">
         <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="4">
         <v>358</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="4">
         <v>359</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="4">
         <v>360</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="4">
         <v>361</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="4">
         <v>362</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="4">
         <v>363</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="4">
         <v>364</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="4">
         <v>365</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="4">
         <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="4">
         <v>367</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="4">
         <v>368</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="4">
         <v>369</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="4">
         <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="4">
         <v>371</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="4">
         <v>372</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="4">
         <v>373</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="4">
         <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="4">
         <v>375</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="4">
         <v>376</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="4">
         <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="4">
         <v>378</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="4">
         <v>379</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="4">
         <v>380</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="4">
         <v>381</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="4">
         <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="4">
         <v>383</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="4">
         <v>384</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="4">
         <v>385</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="4">
         <v>386</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="4">
         <v>387</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="4">
         <v>388</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="4">
         <v>389</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="4">
         <v>390</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="4">
         <v>391</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="4">
         <v>392</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="4">
         <v>393</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="4">
         <v>394</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="4">
         <v>395</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="4">
         <v>396</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="4">
         <v>397</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="4">
         <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="4">
         <v>399</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="4">
         <v>401</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="4">
         <v>402</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="4">
         <v>403</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="4">
         <v>404</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="4">
         <v>405</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="4">
         <v>406</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="4">
         <v>407</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="4">
         <v>408</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="4">
         <v>409</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="4">
         <v>410</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="4">
         <v>411</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="4">
         <v>412</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="4">
         <v>413</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="4">
         <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="4">
         <v>415</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="4">
         <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="4">
         <v>417</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="4">
         <v>418</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="4">
         <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="4">
         <v>420</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="4">
         <v>421</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="4">
         <v>422</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="4">
         <v>423</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="4">
         <v>424</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="4">
         <v>425</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="4">
         <v>426</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="4">
         <v>427</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="4">
         <v>428</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="4">
         <v>429</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="4">
         <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="4">
         <v>431</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="4">
         <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="4">
         <v>433</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="4">
         <v>434</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="4">
         <v>435</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="4">
         <v>436</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="4">
         <v>437</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="4">
         <v>438</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="4">
         <v>439</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="4">
         <v>440</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="4">
         <v>441</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="4">
         <v>442</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="4">
         <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="4">
         <v>444</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="4">
         <v>445</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="4">
         <v>446</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="4">
         <v>447</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="4">
         <v>448</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="4">
         <v>449</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="4">
         <v>451</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="4">
         <v>452</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="4">
         <v>453</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="4">
         <v>454</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="4">
         <v>455</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="4">
         <v>456</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="4">
         <v>457</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="4">
         <v>458</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="4">
         <v>459</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="4">
         <v>460</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="4">
         <v>461</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="4">
         <v>462</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="4">
         <v>463</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="4">
         <v>464</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="4">
         <v>465</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="4">
         <v>466</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="4">
         <v>467</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="4">
         <v>468</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="4">
         <v>469</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="4">
         <v>470</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="4">
         <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="4">
         <v>472</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="4">
         <v>473</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="4">
         <v>474</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="4">
         <v>475</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="4">
         <v>476</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="4">
         <v>477</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="4">
         <v>478</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="4">
         <v>479</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="4">
         <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="4">
         <v>481</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="4">
         <v>482</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="4">
         <v>483</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="4">
         <v>484</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="4">
         <v>485</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="4">
         <v>486</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="4">
         <v>487</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="4">
         <v>488</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="4">
         <v>489</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="4">
         <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="4">
         <v>491</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="4">
         <v>492</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="4">
         <v>493</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="4">
         <v>494</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="4">
         <v>495</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="4">
         <v>496</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="4">
         <v>497</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="4">
         <v>498</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="4">
         <v>499</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="4">
         <v>501</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="4">
         <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="4">
         <v>503</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="4">
         <v>504</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="4">
         <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="4">
         <v>506</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="4">
         <v>507</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="4">
         <v>508</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="4">
         <v>509</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="4">
         <v>510</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="4">
         <v>511</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="4">
         <v>512</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="4">
         <v>513</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="4">
         <v>514</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="4">
         <v>515</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="4">
         <v>516</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="4">
         <v>517</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="4">
         <v>518</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="4">
         <v>519</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="4">
         <v>520</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="4">
         <v>521</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="4">
         <v>522</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="4">
         <v>523</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="4">
         <v>524</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="4">
         <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="4">
         <v>526</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="4">
         <v>527</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="4">
         <v>528</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="4">
         <v>529</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="4">
         <v>530</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="4">
         <v>531</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="4">
         <v>532</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="4">
         <v>533</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="4">
         <v>534</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="4">
         <v>535</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="4">
         <v>536</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="4">
         <v>537</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="4">
         <v>538</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="4">
         <v>539</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="4">
         <v>540</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="4">
         <v>541</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="4">
         <v>542</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="4">
         <v>543</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="4">
         <v>544</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="4">
         <v>545</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="4">
         <v>546</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="4">
         <v>547</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="4">
         <v>548</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="4">
         <v>549</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="4">
         <v>550</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="4">
         <v>551</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="4">
         <v>552</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="4">
         <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="4">
         <v>554</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="4">
         <v>555</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="4">
         <v>556</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="4">
         <v>557</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="4">
         <v>558</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="4">
         <v>559</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="4">
         <v>560</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="4">
         <v>561</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="4">
         <v>562</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="4">
         <v>563</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="4">
         <v>564</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="4">
         <v>565</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="4">
         <v>566</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="4">
         <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="4">
         <v>568</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="4">
         <v>569</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="4">
         <v>570</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="4">
         <v>571</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="4">
         <v>572</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="4">
         <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="4">
         <v>574</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="4">
         <v>575</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="4">
         <v>576</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="4">
         <v>577</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="4">
         <v>578</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="4">
         <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="4">
         <v>580</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="4">
         <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="4">
         <v>582</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="4">
         <v>583</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="4">
         <v>584</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="4">
         <v>585</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="4">
         <v>586</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="4">
         <v>587</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="4">
         <v>588</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="4">
         <v>589</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="4">
         <v>590</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="4">
         <v>591</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="4">
         <v>592</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="4">
         <v>593</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="4">
         <v>594</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="4">
         <v>595</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="4">
         <v>596</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="4">
         <v>597</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="4">
         <v>598</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="4">
         <v>599</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="4">
         <v>601</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="4">
         <v>602</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="4">
         <v>603</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="4">
         <v>604</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="4">
         <v>605</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="4">
         <v>606</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="4">
         <v>607</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="4">
         <v>608</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="4">
         <v>609</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="4">
         <v>610</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="4">
         <v>611</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="4">
         <v>612</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="4">
         <v>613</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="4">
         <v>614</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="4">
         <v>615</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="4">
         <v>616</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="4">
         <v>617</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="4">
         <v>618</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="4">
         <v>619</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="4">
         <v>620</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="4">
         <v>621</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="4">
         <v>622</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="4">
         <v>623</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="4">
         <v>624</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="4">
         <v>625</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="4">
         <v>626</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="4">
         <v>627</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="4">
         <v>628</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="4">
         <v>629</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="4">
         <v>630</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="4">
         <v>631</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="4">
         <v>632</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="4">
         <v>633</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="4">
         <v>634</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="4">
         <v>635</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="4">
         <v>636</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="4">
         <v>637</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="4">
         <v>638</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="4">
         <v>639</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="4">
         <v>640</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="4">
         <v>641</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="4">
         <v>642</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="4">
         <v>643</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="4">
         <v>644</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="4">
         <v>645</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="4">
         <v>646</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="4">
         <v>647</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="4">
         <v>648</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="4">
         <v>649</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551">
+      <c r="A551" s="4">
         <v>650</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="A552" s="4">
         <v>651</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="A553" s="4">
         <v>652</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="A554" s="4">
         <v>653</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="A555" s="4">
         <v>654</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="A556" s="4">
         <v>655</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="A557" s="4">
         <v>656</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="A558" s="4">
         <v>657</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="A559" s="4">
         <v>658</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="A560" s="4">
         <v>659</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="A561" s="4">
         <v>660</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562">
+      <c r="A562" s="4">
         <v>661</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="A563" s="4">
         <v>662</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="A564" s="4">
         <v>663</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565">
+      <c r="A565" s="4">
         <v>664</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566">
+      <c r="A566" s="4">
         <v>665</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567">
+      <c r="A567" s="4">
         <v>666</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568">
+      <c r="A568" s="4">
         <v>667</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569">
+      <c r="A569" s="4">
         <v>668</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570">
+      <c r="A570" s="4">
         <v>669</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571">
+      <c r="A571" s="4">
         <v>670</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572">
+      <c r="A572" s="4">
         <v>671</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573">
+      <c r="A573" s="4">
         <v>672</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574">
+      <c r="A574" s="4">
         <v>673</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575">
+      <c r="A575" s="4">
         <v>674</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576">
+      <c r="A576" s="4">
         <v>675</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577">
+      <c r="A577" s="4">
         <v>676</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578">
+      <c r="A578" s="4">
         <v>677</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579">
+      <c r="A579" s="4">
         <v>678</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580">
+      <c r="A580" s="4">
         <v>679</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581">
+      <c r="A581" s="4">
         <v>680</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582">
+      <c r="A582" s="4">
         <v>681</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583">
+      <c r="A583" s="4">
         <v>682</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584">
+      <c r="A584" s="4">
         <v>683</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585">
+      <c r="A585" s="4">
         <v>684</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586">
+      <c r="A586" s="4">
         <v>685</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587">
+      <c r="A587" s="4">
         <v>686</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588">
+      <c r="A588" s="4">
         <v>687</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589">
+      <c r="A589" s="4">
         <v>688</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590">
+      <c r="A590" s="4">
         <v>689</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591">
+      <c r="A591" s="4">
         <v>690</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592">
+      <c r="A592" s="4">
         <v>691</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593">
+      <c r="A593" s="4">
         <v>692</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594">
+      <c r="A594" s="4">
         <v>693</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595">
+      <c r="A595" s="4">
         <v>694</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596">
+      <c r="A596" s="4">
         <v>695</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597">
+      <c r="A597" s="4">
         <v>696</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598">
+      <c r="A598" s="4">
         <v>697</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599">
+      <c r="A599" s="4">
         <v>698</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600">
+      <c r="A600" s="4">
         <v>699</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601">
+      <c r="A601" s="4">
         <v>700</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602">
+      <c r="A602" s="4">
         <v>701</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603">
+      <c r="A603" s="4">
         <v>702</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604">
+      <c r="A604" s="4">
         <v>703</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605">
+      <c r="A605" s="4">
         <v>704</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606">
+      <c r="A606" s="4">
         <v>705</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607">
+      <c r="A607" s="4">
         <v>706</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608">
+      <c r="A608" s="4">
         <v>707</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609">
+      <c r="A609" s="4">
         <v>708</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610">
+      <c r="A610" s="4">
         <v>709</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611">
+      <c r="A611" s="4">
         <v>710</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612">
+      <c r="A612" s="4">
         <v>711</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613">
+      <c r="A613" s="4">
         <v>712</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614">
+      <c r="A614" s="4">
         <v>713</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615">
+      <c r="A615" s="4">
         <v>714</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616">
+      <c r="A616" s="4">
         <v>715</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617">
+      <c r="A617" s="4">
         <v>716</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618">
+      <c r="A618" s="4">
         <v>717</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619">
+      <c r="A619" s="4">
         <v>718</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620">
+      <c r="A620" s="4">
         <v>719</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621">
+      <c r="A621" s="4">
         <v>720</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622">
+      <c r="A622" s="4">
         <v>721</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623">
+      <c r="A623" s="4">
         <v>722</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624">
+      <c r="A624" s="4">
         <v>723</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625">
+      <c r="A625" s="4">
         <v>724</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626">
+      <c r="A626" s="4">
         <v>725</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627">
+      <c r="A627" s="4">
         <v>726</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628">
+      <c r="A628" s="4">
         <v>727</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629">
+      <c r="A629" s="4">
         <v>728</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630">
+      <c r="A630" s="4">
         <v>729</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631">
+      <c r="A631" s="4">
         <v>730</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632">
+      <c r="A632" s="4">
         <v>731</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633">
+      <c r="A633" s="4">
         <v>732</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634">
+      <c r="A634" s="4">
         <v>733</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635">
+      <c r="A635" s="4">
         <v>734</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636">
+      <c r="A636" s="4">
         <v>735</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637">
+      <c r="A637" s="4">
         <v>736</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638">
+      <c r="A638" s="4">
         <v>737</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639">
+      <c r="A639" s="4">
         <v>738</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640">
+      <c r="A640" s="4">
         <v>739</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641">
+      <c r="A641" s="4">
         <v>740</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642">
+      <c r="A642" s="4">
         <v>741</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643">
+      <c r="A643" s="4">
         <v>742</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644">
+      <c r="A644" s="4">
         <v>743</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645">
+      <c r="A645" s="4">
         <v>744</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646">
+      <c r="A646" s="4">
         <v>745</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647">
+      <c r="A647" s="4">
         <v>746</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648">
+      <c r="A648" s="4">
         <v>747</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649">
+      <c r="A649" s="4">
         <v>748</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650">
+      <c r="A650" s="4">
         <v>749</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651">
+      <c r="A651" s="4">
         <v>750</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652">
+      <c r="A652" s="4">
         <v>751</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653">
+      <c r="A653" s="4">
         <v>752</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654">
+      <c r="A654" s="4">
         <v>753</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655">
+      <c r="A655" s="4">
         <v>754</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656">
+      <c r="A656" s="4">
         <v>755</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657">
+      <c r="A657" s="4">
         <v>756</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658">
+      <c r="A658" s="4">
         <v>757</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659">
+      <c r="A659" s="4">
         <v>758</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660">
+      <c r="A660" s="4">
         <v>759</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661">
+      <c r="A661" s="4">
         <v>760</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662">
+      <c r="A662" s="4">
         <v>761</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663">
+      <c r="A663" s="4">
         <v>762</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664">
+      <c r="A664" s="4">
         <v>763</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665">
+      <c r="A665" s="4">
         <v>764</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666">
+      <c r="A666" s="4">
         <v>765</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667">
+      <c r="A667" s="4">
         <v>766</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668">
+      <c r="A668" s="4">
         <v>767</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669">
+      <c r="A669" s="4">
         <v>768</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670">
+      <c r="A670" s="4">
         <v>769</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671">
+      <c r="A671" s="4">
         <v>770</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672">
+      <c r="A672" s="4">
         <v>771</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673">
+      <c r="A673" s="4">
         <v>772</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674">
+      <c r="A674" s="4">
         <v>773</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675">
+      <c r="A675" s="4">
         <v>774</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676">
+      <c r="A676" s="4">
         <v>775</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677">
+      <c r="A677" s="4">
         <v>776</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678">
+      <c r="A678" s="4">
         <v>777</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679">
+      <c r="A679" s="4">
         <v>778</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680">
+      <c r="A680" s="4">
         <v>779</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681">
+      <c r="A681" s="4">
         <v>780</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682">
+      <c r="A682" s="4">
         <v>781</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683">
+      <c r="A683" s="4">
         <v>782</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684">
+      <c r="A684" s="4">
         <v>783</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685">
+      <c r="A685" s="4">
         <v>784</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686">
+      <c r="A686" s="4">
         <v>785</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687">
+      <c r="A687" s="4">
         <v>786</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688">
+      <c r="A688" s="4">
         <v>787</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689">
+      <c r="A689" s="4">
         <v>788</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690">
+      <c r="A690" s="4">
         <v>789</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691">
+      <c r="A691" s="4">
         <v>790</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692">
+      <c r="A692" s="4">
         <v>791</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693">
+      <c r="A693" s="4">
         <v>792</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694">
+      <c r="A694" s="4">
         <v>793</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695">
+      <c r="A695" s="4">
         <v>794</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696">
+      <c r="A696" s="4">
         <v>795</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697">
+      <c r="A697" s="4">
         <v>796</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698">
+      <c r="A698" s="4">
         <v>797</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699">
+      <c r="A699" s="4">
         <v>798</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700">
+      <c r="A700" s="4">
         <v>799</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701">
+      <c r="A701" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702">
+      <c r="A702" s="4">
         <v>801</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703">
+      <c r="A703" s="4">
         <v>802</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704">
+      <c r="A704" s="4">
         <v>803</v>
       </c>
     </row>
@@ -4491,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,10 +4781,10 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,10 +4795,10 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4786,10 +4809,10 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,7 +4823,10 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,10 +4834,10 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,10 +4845,10 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,10 +4856,10 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4841,10 +4867,10 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,7 +4881,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4866,17 +4892,35 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>129</v>
       </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="125">
   <si>
     <t>TC Number</t>
   </si>
@@ -370,6 +370,42 @@
   </si>
   <si>
     <t>JS Linter</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Create new account then log in / log out</t>
+  </si>
+  <si>
+    <t>Create new poem with pre-existing account</t>
+  </si>
+  <si>
+    <t>Navigate to user management page with pre-exisitng admin account</t>
+  </si>
+  <si>
+    <t>While not logged in, view details of one poem then navigate to the homepage</t>
+  </si>
+  <si>
+    <t>Feature not  implemented</t>
+  </si>
+  <si>
+    <t>Basic log in / log out with pre-existing non-admin account</t>
+  </si>
+  <si>
+    <t>Basic log in / log out with pre-existing admin account.  View user admin page.</t>
+  </si>
+  <si>
+    <t>In progress with Selenium</t>
+  </si>
+  <si>
+    <t>Poem details page should have buttons to share on social media</t>
+  </si>
+  <si>
+    <t>Create 1000 local user accounts</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
@@ -438,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -449,6 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -768,7 +805,7 @@
   <dimension ref="A1:D704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>132</v>
       </c>
@@ -1119,7 +1156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>133</v>
       </c>
@@ -1127,7 +1164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>134</v>
       </c>
@@ -1135,7 +1172,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>135</v>
       </c>
@@ -1143,7 +1180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>136</v>
       </c>
@@ -1151,7 +1188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>137</v>
       </c>
@@ -1159,7 +1196,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>138</v>
       </c>
@@ -1167,7 +1204,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>139</v>
       </c>
@@ -1175,45 +1212,54 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>140</v>
       </c>
+      <c r="B41" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>147</v>
       </c>
@@ -4514,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,6 +4929,9 @@
       <c r="C29" t="s">
         <v>52</v>
       </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4923,82 +4972,133 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>146</v>
       </c>

--- a/project.xlsx
+++ b/project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
   <si>
     <t>TC Number</t>
   </si>
@@ -402,17 +402,17 @@
     <t>Poem details page should have buttons to share on social media</t>
   </si>
   <si>
-    <t>Create 1000 local user accounts</t>
-  </si>
-  <si>
-    <t>IP</t>
+    <t>Create 10 local user accounts</t>
+  </si>
+  <si>
+    <t>Homepage should list poems in a table rather than displaying them as cards.  List should be sortable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +424,21 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,9 +489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -486,6 +500,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -804,3743 +820,3746 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="124.28515625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="124.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>114</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>115</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>116</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>117</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>118</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>119</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>120</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>121</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>122</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>123</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>124</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>125</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>126</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>127</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>128</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>129</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>130</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>131</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>132</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>133</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>134</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>135</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>136</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>137</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>138</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>139</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>140</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>141</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>142</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>286</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>287</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="3">
         <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="3">
         <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="3">
         <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="3">
         <v>297</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="3">
         <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="3">
         <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="3">
         <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="3">
         <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="3">
         <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="3">
         <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="3">
         <v>305</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="3">
         <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="3">
         <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="3">
         <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
         <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="3">
         <v>310</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
+      <c r="A212" s="3">
         <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
+      <c r="A213" s="3">
         <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
+      <c r="A214" s="3">
         <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
+      <c r="A215" s="3">
         <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
+      <c r="A216" s="3">
         <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <v>317</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
+      <c r="A221" s="3">
         <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="3">
         <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4">
+      <c r="A223" s="3">
         <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4">
+      <c r="A224" s="3">
         <v>323</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="3">
         <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
+      <c r="A226" s="3">
         <v>325</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
+      <c r="A227" s="3">
         <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
+      <c r="A228" s="3">
         <v>327</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
+      <c r="A229" s="3">
         <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
+      <c r="A230" s="3">
         <v>329</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
+      <c r="A231" s="3">
         <v>330</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="3">
         <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4">
+      <c r="A233" s="3">
         <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4">
+      <c r="A234" s="3">
         <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4">
+      <c r="A235" s="3">
         <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4">
+      <c r="A236" s="3">
         <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4">
+      <c r="A237" s="3">
         <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
+      <c r="A238" s="3">
         <v>337</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
+      <c r="A239" s="3">
         <v>338</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4">
+      <c r="A240" s="3">
         <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4">
+      <c r="A241" s="3">
         <v>340</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
+      <c r="A242" s="3">
         <v>341</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
+      <c r="A243" s="3">
         <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4">
+      <c r="A244" s="3">
         <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4">
+      <c r="A245" s="3">
         <v>344</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
+      <c r="A246" s="3">
         <v>345</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4">
+      <c r="A247" s="3">
         <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="4">
+      <c r="A248" s="3">
         <v>347</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
+      <c r="A249" s="3">
         <v>348</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4">
+      <c r="A250" s="3">
         <v>349</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
+      <c r="A251" s="3">
         <v>350</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <v>351</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
+      <c r="A253" s="3">
         <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
+      <c r="A254" s="3">
         <v>353</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="4">
+      <c r="A255" s="3">
         <v>354</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4">
+      <c r="A256" s="3">
         <v>355</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
+      <c r="A257" s="3">
         <v>356</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
+      <c r="A258" s="3">
         <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
+      <c r="A259" s="3">
         <v>358</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
+      <c r="A260" s="3">
         <v>359</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <v>360</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <v>361</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4">
+      <c r="A263" s="3">
         <v>362</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4">
+      <c r="A264" s="3">
         <v>363</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4">
+      <c r="A265" s="3">
         <v>364</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
+      <c r="A266" s="3">
         <v>365</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4">
+      <c r="A267" s="3">
         <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4">
+      <c r="A268" s="3">
         <v>367</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
+      <c r="A269" s="3">
         <v>368</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4">
+      <c r="A270" s="3">
         <v>369</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4">
+      <c r="A271" s="3">
         <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4">
+      <c r="A272" s="3">
         <v>371</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4">
+      <c r="A273" s="3">
         <v>372</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4">
+      <c r="A274" s="3">
         <v>373</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4">
+      <c r="A275" s="3">
         <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4">
+      <c r="A276" s="3">
         <v>375</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4">
+      <c r="A277" s="3">
         <v>376</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4">
+      <c r="A278" s="3">
         <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
+      <c r="A279" s="3">
         <v>378</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4">
+      <c r="A280" s="3">
         <v>379</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4">
+      <c r="A281" s="3">
         <v>380</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="4">
+      <c r="A282" s="3">
         <v>381</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4">
+      <c r="A283" s="3">
         <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4">
+      <c r="A284" s="3">
         <v>383</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4">
+      <c r="A285" s="3">
         <v>384</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4">
+      <c r="A286" s="3">
         <v>385</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4">
+      <c r="A287" s="3">
         <v>386</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4">
+      <c r="A288" s="3">
         <v>387</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
+      <c r="A289" s="3">
         <v>388</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4">
+      <c r="A290" s="3">
         <v>389</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4">
+      <c r="A291" s="3">
         <v>390</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4">
+      <c r="A292" s="3">
         <v>391</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4">
+      <c r="A293" s="3">
         <v>392</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4">
+      <c r="A294" s="3">
         <v>393</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4">
+      <c r="A295" s="3">
         <v>394</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4">
+      <c r="A296" s="3">
         <v>395</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4">
+      <c r="A297" s="3">
         <v>396</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4">
+      <c r="A298" s="3">
         <v>397</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="4">
+      <c r="A299" s="3">
         <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="4">
+      <c r="A300" s="3">
         <v>399</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="4">
+      <c r="A301" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="4">
+      <c r="A302" s="3">
         <v>401</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="4">
+      <c r="A303" s="3">
         <v>402</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="4">
+      <c r="A304" s="3">
         <v>403</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="4">
+      <c r="A305" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="4">
+      <c r="A306" s="3">
         <v>405</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4">
+      <c r="A307" s="3">
         <v>406</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="4">
+      <c r="A308" s="3">
         <v>407</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="4">
+      <c r="A309" s="3">
         <v>408</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4">
+      <c r="A310" s="3">
         <v>409</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="4">
+      <c r="A311" s="3">
         <v>410</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="4">
+      <c r="A312" s="3">
         <v>411</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="4">
+      <c r="A313" s="3">
         <v>412</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="4">
+      <c r="A314" s="3">
         <v>413</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="4">
+      <c r="A315" s="3">
         <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4">
+      <c r="A316" s="3">
         <v>415</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="4">
+      <c r="A317" s="3">
         <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="4">
+      <c r="A318" s="3">
         <v>417</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="4">
+      <c r="A319" s="3">
         <v>418</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="4">
+      <c r="A320" s="3">
         <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="4">
+      <c r="A321" s="3">
         <v>420</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="4">
+      <c r="A322" s="3">
         <v>421</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="4">
+      <c r="A323" s="3">
         <v>422</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="4">
+      <c r="A324" s="3">
         <v>423</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="4">
+      <c r="A325" s="3">
         <v>424</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="4">
+      <c r="A326" s="3">
         <v>425</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="4">
+      <c r="A327" s="3">
         <v>426</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="4">
+      <c r="A328" s="3">
         <v>427</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="4">
+      <c r="A329" s="3">
         <v>428</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="4">
+      <c r="A330" s="3">
         <v>429</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="4">
+      <c r="A331" s="3">
         <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="4">
+      <c r="A332" s="3">
         <v>431</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="4">
+      <c r="A333" s="3">
         <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="4">
+      <c r="A334" s="3">
         <v>433</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="4">
+      <c r="A335" s="3">
         <v>434</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="4">
+      <c r="A336" s="3">
         <v>435</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="4">
+      <c r="A337" s="3">
         <v>436</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="4">
+      <c r="A338" s="3">
         <v>437</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="4">
+      <c r="A339" s="3">
         <v>438</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="4">
+      <c r="A340" s="3">
         <v>439</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="4">
+      <c r="A341" s="3">
         <v>440</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="4">
+      <c r="A342" s="3">
         <v>441</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="4">
+      <c r="A343" s="3">
         <v>442</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="4">
+      <c r="A344" s="3">
         <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="4">
+      <c r="A345" s="3">
         <v>444</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="4">
+      <c r="A346" s="3">
         <v>445</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="4">
+      <c r="A347" s="3">
         <v>446</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="4">
+      <c r="A348" s="3">
         <v>447</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="4">
+      <c r="A349" s="3">
         <v>448</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="4">
+      <c r="A350" s="3">
         <v>449</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="4">
+      <c r="A351" s="3">
         <v>450</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="4">
+      <c r="A352" s="3">
         <v>451</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="4">
+      <c r="A353" s="3">
         <v>452</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="4">
+      <c r="A354" s="3">
         <v>453</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="4">
+      <c r="A355" s="3">
         <v>454</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="4">
+      <c r="A356" s="3">
         <v>455</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="4">
+      <c r="A357" s="3">
         <v>456</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4">
+      <c r="A358" s="3">
         <v>457</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="4">
+      <c r="A359" s="3">
         <v>458</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="4">
+      <c r="A360" s="3">
         <v>459</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="4">
+      <c r="A361" s="3">
         <v>460</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="4">
+      <c r="A362" s="3">
         <v>461</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="4">
+      <c r="A363" s="3">
         <v>462</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="4">
+      <c r="A364" s="3">
         <v>463</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="4">
+      <c r="A365" s="3">
         <v>464</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="4">
+      <c r="A366" s="3">
         <v>465</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="4">
+      <c r="A367" s="3">
         <v>466</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="4">
+      <c r="A368" s="3">
         <v>467</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4">
+      <c r="A369" s="3">
         <v>468</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="4">
+      <c r="A370" s="3">
         <v>469</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="4">
+      <c r="A371" s="3">
         <v>470</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="4">
+      <c r="A372" s="3">
         <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="4">
+      <c r="A373" s="3">
         <v>472</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="4">
+      <c r="A374" s="3">
         <v>473</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="4">
+      <c r="A375" s="3">
         <v>474</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="4">
+      <c r="A376" s="3">
         <v>475</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="4">
+      <c r="A377" s="3">
         <v>476</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="4">
+      <c r="A378" s="3">
         <v>477</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="4">
+      <c r="A379" s="3">
         <v>478</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="4">
+      <c r="A380" s="3">
         <v>479</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="4">
+      <c r="A381" s="3">
         <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="4">
+      <c r="A382" s="3">
         <v>481</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="4">
+      <c r="A383" s="3">
         <v>482</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="4">
+      <c r="A384" s="3">
         <v>483</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="4">
+      <c r="A385" s="3">
         <v>484</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="4">
+      <c r="A386" s="3">
         <v>485</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="4">
+      <c r="A387" s="3">
         <v>486</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="4">
+      <c r="A388" s="3">
         <v>487</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="4">
+      <c r="A389" s="3">
         <v>488</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="4">
+      <c r="A390" s="3">
         <v>489</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="4">
+      <c r="A391" s="3">
         <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="4">
+      <c r="A392" s="3">
         <v>491</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="4">
+      <c r="A393" s="3">
         <v>492</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="4">
+      <c r="A394" s="3">
         <v>493</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="4">
+      <c r="A395" s="3">
         <v>494</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="4">
+      <c r="A396" s="3">
         <v>495</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="4">
+      <c r="A397" s="3">
         <v>496</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="4">
+      <c r="A398" s="3">
         <v>497</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="4">
+      <c r="A399" s="3">
         <v>498</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="4">
+      <c r="A400" s="3">
         <v>499</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="4">
+      <c r="A401" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="4">
+      <c r="A402" s="3">
         <v>501</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="4">
+      <c r="A403" s="3">
         <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="4">
+      <c r="A404" s="3">
         <v>503</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="4">
+      <c r="A405" s="3">
         <v>504</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="4">
+      <c r="A406" s="3">
         <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="4">
+      <c r="A407" s="3">
         <v>506</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="4">
+      <c r="A408" s="3">
         <v>507</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="4">
+      <c r="A409" s="3">
         <v>508</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="4">
+      <c r="A410" s="3">
         <v>509</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="4">
+      <c r="A411" s="3">
         <v>510</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="4">
+      <c r="A412" s="3">
         <v>511</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="4">
+      <c r="A413" s="3">
         <v>512</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="4">
+      <c r="A414" s="3">
         <v>513</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="4">
+      <c r="A415" s="3">
         <v>514</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="4">
+      <c r="A416" s="3">
         <v>515</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="4">
+      <c r="A417" s="3">
         <v>516</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="4">
+      <c r="A418" s="3">
         <v>517</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="4">
+      <c r="A419" s="3">
         <v>518</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="4">
+      <c r="A420" s="3">
         <v>519</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="4">
+      <c r="A421" s="3">
         <v>520</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="4">
+      <c r="A422" s="3">
         <v>521</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="4">
+      <c r="A423" s="3">
         <v>522</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="4">
+      <c r="A424" s="3">
         <v>523</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="4">
+      <c r="A425" s="3">
         <v>524</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="4">
+      <c r="A426" s="3">
         <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="4">
+      <c r="A427" s="3">
         <v>526</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="4">
+      <c r="A428" s="3">
         <v>527</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="4">
+      <c r="A429" s="3">
         <v>528</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="4">
+      <c r="A430" s="3">
         <v>529</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="4">
+      <c r="A431" s="3">
         <v>530</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="4">
+      <c r="A432" s="3">
         <v>531</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="4">
+      <c r="A433" s="3">
         <v>532</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="4">
+      <c r="A434" s="3">
         <v>533</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4">
+      <c r="A435" s="3">
         <v>534</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="4">
+      <c r="A436" s="3">
         <v>535</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="4">
+      <c r="A437" s="3">
         <v>536</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="4">
+      <c r="A438" s="3">
         <v>537</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="4">
+      <c r="A439" s="3">
         <v>538</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="4">
+      <c r="A440" s="3">
         <v>539</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="4">
+      <c r="A441" s="3">
         <v>540</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="4">
+      <c r="A442" s="3">
         <v>541</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="4">
+      <c r="A443" s="3">
         <v>542</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="4">
+      <c r="A444" s="3">
         <v>543</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="4">
+      <c r="A445" s="3">
         <v>544</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="4">
+      <c r="A446" s="3">
         <v>545</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4">
+      <c r="A447" s="3">
         <v>546</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="4">
+      <c r="A448" s="3">
         <v>547</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="4">
+      <c r="A449" s="3">
         <v>548</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="4">
+      <c r="A450" s="3">
         <v>549</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="4">
+      <c r="A451" s="3">
         <v>550</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="4">
+      <c r="A452" s="3">
         <v>551</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="4">
+      <c r="A453" s="3">
         <v>552</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="4">
+      <c r="A454" s="3">
         <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="4">
+      <c r="A455" s="3">
         <v>554</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="4">
+      <c r="A456" s="3">
         <v>555</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="4">
+      <c r="A457" s="3">
         <v>556</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="4">
+      <c r="A458" s="3">
         <v>557</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="4">
+      <c r="A459" s="3">
         <v>558</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="4">
+      <c r="A460" s="3">
         <v>559</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="4">
+      <c r="A461" s="3">
         <v>560</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="4">
+      <c r="A462" s="3">
         <v>561</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="4">
+      <c r="A463" s="3">
         <v>562</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="4">
+      <c r="A464" s="3">
         <v>563</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="4">
+      <c r="A465" s="3">
         <v>564</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="4">
+      <c r="A466" s="3">
         <v>565</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="4">
+      <c r="A467" s="3">
         <v>566</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="4">
+      <c r="A468" s="3">
         <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="4">
+      <c r="A469" s="3">
         <v>568</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="4">
+      <c r="A470" s="3">
         <v>569</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="4">
+      <c r="A471" s="3">
         <v>570</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="4">
+      <c r="A472" s="3">
         <v>571</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="4">
+      <c r="A473" s="3">
         <v>572</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="4">
+      <c r="A474" s="3">
         <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="4">
+      <c r="A475" s="3">
         <v>574</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="4">
+      <c r="A476" s="3">
         <v>575</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="4">
+      <c r="A477" s="3">
         <v>576</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="4">
+      <c r="A478" s="3">
         <v>577</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="4">
+      <c r="A479" s="3">
         <v>578</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="4">
+      <c r="A480" s="3">
         <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="4">
+      <c r="A481" s="3">
         <v>580</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="4">
+      <c r="A482" s="3">
         <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="4">
+      <c r="A483" s="3">
         <v>582</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="4">
+      <c r="A484" s="3">
         <v>583</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="4">
+      <c r="A485" s="3">
         <v>584</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="4">
+      <c r="A486" s="3">
         <v>585</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="4">
+      <c r="A487" s="3">
         <v>586</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="4">
+      <c r="A488" s="3">
         <v>587</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="4">
+      <c r="A489" s="3">
         <v>588</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="4">
+      <c r="A490" s="3">
         <v>589</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="4">
+      <c r="A491" s="3">
         <v>590</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="4">
+      <c r="A492" s="3">
         <v>591</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="4">
+      <c r="A493" s="3">
         <v>592</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="4">
+      <c r="A494" s="3">
         <v>593</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="4">
+      <c r="A495" s="3">
         <v>594</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="4">
+      <c r="A496" s="3">
         <v>595</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="4">
+      <c r="A497" s="3">
         <v>596</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="4">
+      <c r="A498" s="3">
         <v>597</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4">
+      <c r="A499" s="3">
         <v>598</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="4">
+      <c r="A500" s="3">
         <v>599</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="4">
+      <c r="A501" s="3">
         <v>600</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="4">
+      <c r="A502" s="3">
         <v>601</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="4">
+      <c r="A503" s="3">
         <v>602</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="4">
+      <c r="A504" s="3">
         <v>603</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="4">
+      <c r="A505" s="3">
         <v>604</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="4">
+      <c r="A506" s="3">
         <v>605</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4">
+      <c r="A507" s="3">
         <v>606</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="4">
+      <c r="A508" s="3">
         <v>607</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="4">
+      <c r="A509" s="3">
         <v>608</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="4">
+      <c r="A510" s="3">
         <v>609</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="4">
+      <c r="A511" s="3">
         <v>610</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="4">
+      <c r="A512" s="3">
         <v>611</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="4">
+      <c r="A513" s="3">
         <v>612</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="4">
+      <c r="A514" s="3">
         <v>613</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="4">
+      <c r="A515" s="3">
         <v>614</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="4">
+      <c r="A516" s="3">
         <v>615</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="4">
+      <c r="A517" s="3">
         <v>616</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4">
+      <c r="A518" s="3">
         <v>617</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="4">
+      <c r="A519" s="3">
         <v>618</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="4">
+      <c r="A520" s="3">
         <v>619</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="4">
+      <c r="A521" s="3">
         <v>620</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="4">
+      <c r="A522" s="3">
         <v>621</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="4">
+      <c r="A523" s="3">
         <v>622</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="4">
+      <c r="A524" s="3">
         <v>623</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="4">
+      <c r="A525" s="3">
         <v>624</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="4">
+      <c r="A526" s="3">
         <v>625</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="4">
+      <c r="A527" s="3">
         <v>626</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="4">
+      <c r="A528" s="3">
         <v>627</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="4">
+      <c r="A529" s="3">
         <v>628</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="4">
+      <c r="A530" s="3">
         <v>629</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="4">
+      <c r="A531" s="3">
         <v>630</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="4">
+      <c r="A532" s="3">
         <v>631</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="4">
+      <c r="A533" s="3">
         <v>632</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="4">
+      <c r="A534" s="3">
         <v>633</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="4">
+      <c r="A535" s="3">
         <v>634</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="4">
+      <c r="A536" s="3">
         <v>635</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="4">
+      <c r="A537" s="3">
         <v>636</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="4">
+      <c r="A538" s="3">
         <v>637</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="4">
+      <c r="A539" s="3">
         <v>638</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="4">
+      <c r="A540" s="3">
         <v>639</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="4">
+      <c r="A541" s="3">
         <v>640</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="4">
+      <c r="A542" s="3">
         <v>641</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="4">
+      <c r="A543" s="3">
         <v>642</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="4">
+      <c r="A544" s="3">
         <v>643</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="4">
+      <c r="A545" s="3">
         <v>644</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="4">
+      <c r="A546" s="3">
         <v>645</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="4">
+      <c r="A547" s="3">
         <v>646</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="4">
+      <c r="A548" s="3">
         <v>647</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="4">
+      <c r="A549" s="3">
         <v>648</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="4">
+      <c r="A550" s="3">
         <v>649</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="4">
+      <c r="A551" s="3">
         <v>650</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="4">
+      <c r="A552" s="3">
         <v>651</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="4">
+      <c r="A553" s="3">
         <v>652</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="4">
+      <c r="A554" s="3">
         <v>653</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="4">
+      <c r="A555" s="3">
         <v>654</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="4">
+      <c r="A556" s="3">
         <v>655</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="4">
+      <c r="A557" s="3">
         <v>656</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="4">
+      <c r="A558" s="3">
         <v>657</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="4">
+      <c r="A559" s="3">
         <v>658</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="4">
+      <c r="A560" s="3">
         <v>659</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="4">
+      <c r="A561" s="3">
         <v>660</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="4">
+      <c r="A562" s="3">
         <v>661</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="4">
+      <c r="A563" s="3">
         <v>662</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="4">
+      <c r="A564" s="3">
         <v>663</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="4">
+      <c r="A565" s="3">
         <v>664</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="4">
+      <c r="A566" s="3">
         <v>665</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="4">
+      <c r="A567" s="3">
         <v>666</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="4">
+      <c r="A568" s="3">
         <v>667</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="4">
+      <c r="A569" s="3">
         <v>668</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="4">
+      <c r="A570" s="3">
         <v>669</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="4">
+      <c r="A571" s="3">
         <v>670</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="4">
+      <c r="A572" s="3">
         <v>671</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="4">
+      <c r="A573" s="3">
         <v>672</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="4">
+      <c r="A574" s="3">
         <v>673</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="4">
+      <c r="A575" s="3">
         <v>674</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="4">
+      <c r="A576" s="3">
         <v>675</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="4">
+      <c r="A577" s="3">
         <v>676</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="4">
+      <c r="A578" s="3">
         <v>677</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="4">
+      <c r="A579" s="3">
         <v>678</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="4">
+      <c r="A580" s="3">
         <v>679</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="4">
+      <c r="A581" s="3">
         <v>680</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="4">
+      <c r="A582" s="3">
         <v>681</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="4">
+      <c r="A583" s="3">
         <v>682</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="4">
+      <c r="A584" s="3">
         <v>683</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="4">
+      <c r="A585" s="3">
         <v>684</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="4">
+      <c r="A586" s="3">
         <v>685</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="4">
+      <c r="A587" s="3">
         <v>686</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="4">
+      <c r="A588" s="3">
         <v>687</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="4">
+      <c r="A589" s="3">
         <v>688</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="4">
+      <c r="A590" s="3">
         <v>689</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="4">
+      <c r="A591" s="3">
         <v>690</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="4">
+      <c r="A592" s="3">
         <v>691</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="4">
+      <c r="A593" s="3">
         <v>692</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="4">
+      <c r="A594" s="3">
         <v>693</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="4">
+      <c r="A595" s="3">
         <v>694</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="4">
+      <c r="A596" s="3">
         <v>695</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="4">
+      <c r="A597" s="3">
         <v>696</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="4">
+      <c r="A598" s="3">
         <v>697</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="4">
+      <c r="A599" s="3">
         <v>698</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="4">
+      <c r="A600" s="3">
         <v>699</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="4">
+      <c r="A601" s="3">
         <v>700</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="4">
+      <c r="A602" s="3">
         <v>701</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="4">
+      <c r="A603" s="3">
         <v>702</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="4">
+      <c r="A604" s="3">
         <v>703</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="4">
+      <c r="A605" s="3">
         <v>704</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="4">
+      <c r="A606" s="3">
         <v>705</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="4">
+      <c r="A607" s="3">
         <v>706</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="4">
+      <c r="A608" s="3">
         <v>707</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="4">
+      <c r="A609" s="3">
         <v>708</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="4">
+      <c r="A610" s="3">
         <v>709</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="4">
+      <c r="A611" s="3">
         <v>710</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="4">
+      <c r="A612" s="3">
         <v>711</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="4">
+      <c r="A613" s="3">
         <v>712</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="4">
+      <c r="A614" s="3">
         <v>713</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="4">
+      <c r="A615" s="3">
         <v>714</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="4">
+      <c r="A616" s="3">
         <v>715</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="4">
+      <c r="A617" s="3">
         <v>716</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="4">
+      <c r="A618" s="3">
         <v>717</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="4">
+      <c r="A619" s="3">
         <v>718</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="4">
+      <c r="A620" s="3">
         <v>719</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="4">
+      <c r="A621" s="3">
         <v>720</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="4">
+      <c r="A622" s="3">
         <v>721</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="4">
+      <c r="A623" s="3">
         <v>722</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="4">
+      <c r="A624" s="3">
         <v>723</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="4">
+      <c r="A625" s="3">
         <v>724</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="4">
+      <c r="A626" s="3">
         <v>725</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="4">
+      <c r="A627" s="3">
         <v>726</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="4">
+      <c r="A628" s="3">
         <v>727</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="4">
+      <c r="A629" s="3">
         <v>728</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="4">
+      <c r="A630" s="3">
         <v>729</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="4">
+      <c r="A631" s="3">
         <v>730</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="4">
+      <c r="A632" s="3">
         <v>731</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="4">
+      <c r="A633" s="3">
         <v>732</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="4">
+      <c r="A634" s="3">
         <v>733</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="4">
+      <c r="A635" s="3">
         <v>734</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="4">
+      <c r="A636" s="3">
         <v>735</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="4">
+      <c r="A637" s="3">
         <v>736</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="4">
+      <c r="A638" s="3">
         <v>737</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="4">
+      <c r="A639" s="3">
         <v>738</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="4">
+      <c r="A640" s="3">
         <v>739</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="4">
+      <c r="A641" s="3">
         <v>740</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="4">
+      <c r="A642" s="3">
         <v>741</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="4">
+      <c r="A643" s="3">
         <v>742</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="4">
+      <c r="A644" s="3">
         <v>743</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="4">
+      <c r="A645" s="3">
         <v>744</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="4">
+      <c r="A646" s="3">
         <v>745</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="4">
+      <c r="A647" s="3">
         <v>746</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="4">
+      <c r="A648" s="3">
         <v>747</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="4">
+      <c r="A649" s="3">
         <v>748</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="4">
+      <c r="A650" s="3">
         <v>749</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="4">
+      <c r="A651" s="3">
         <v>750</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="4">
+      <c r="A652" s="3">
         <v>751</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="4">
+      <c r="A653" s="3">
         <v>752</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="4">
+      <c r="A654" s="3">
         <v>753</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="4">
+      <c r="A655" s="3">
         <v>754</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="4">
+      <c r="A656" s="3">
         <v>755</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="4">
+      <c r="A657" s="3">
         <v>756</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="4">
+      <c r="A658" s="3">
         <v>757</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="4">
+      <c r="A659" s="3">
         <v>758</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="4">
+      <c r="A660" s="3">
         <v>759</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="4">
+      <c r="A661" s="3">
         <v>760</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="4">
+      <c r="A662" s="3">
         <v>761</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="4">
+      <c r="A663" s="3">
         <v>762</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="4">
+      <c r="A664" s="3">
         <v>763</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="4">
+      <c r="A665" s="3">
         <v>764</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="4">
+      <c r="A666" s="3">
         <v>765</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="4">
+      <c r="A667" s="3">
         <v>766</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="4">
+      <c r="A668" s="3">
         <v>767</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="4">
+      <c r="A669" s="3">
         <v>768</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="4">
+      <c r="A670" s="3">
         <v>769</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="4">
+      <c r="A671" s="3">
         <v>770</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="4">
+      <c r="A672" s="3">
         <v>771</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="4">
+      <c r="A673" s="3">
         <v>772</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="4">
+      <c r="A674" s="3">
         <v>773</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="4">
+      <c r="A675" s="3">
         <v>774</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="4">
+      <c r="A676" s="3">
         <v>775</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="4">
+      <c r="A677" s="3">
         <v>776</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="4">
+      <c r="A678" s="3">
         <v>777</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="4">
+      <c r="A679" s="3">
         <v>778</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="4">
+      <c r="A680" s="3">
         <v>779</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="4">
+      <c r="A681" s="3">
         <v>780</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="4">
+      <c r="A682" s="3">
         <v>781</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="4">
+      <c r="A683" s="3">
         <v>782</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="4">
+      <c r="A684" s="3">
         <v>783</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="4">
+      <c r="A685" s="3">
         <v>784</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="4">
+      <c r="A686" s="3">
         <v>785</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="4">
+      <c r="A687" s="3">
         <v>786</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="4">
+      <c r="A688" s="3">
         <v>787</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="4">
+      <c r="A689" s="3">
         <v>788</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="4">
+      <c r="A690" s="3">
         <v>789</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="4">
+      <c r="A691" s="3">
         <v>790</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="4">
+      <c r="A692" s="3">
         <v>791</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="4">
+      <c r="A693" s="3">
         <v>792</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="4">
+      <c r="A694" s="3">
         <v>793</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="4">
+      <c r="A695" s="3">
         <v>794</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="4">
+      <c r="A696" s="3">
         <v>795</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="4">
+      <c r="A697" s="3">
         <v>796</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="4">
+      <c r="A698" s="3">
         <v>797</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="4">
+      <c r="A699" s="3">
         <v>798</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="4">
+      <c r="A700" s="3">
         <v>799</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="4">
+      <c r="A701" s="3">
         <v>800</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="4">
+      <c r="A702" s="3">
         <v>801</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="4">
+      <c r="A703" s="3">
         <v>802</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="4">
+      <c r="A704" s="3">
         <v>803</v>
       </c>
     </row>
@@ -4560,576 +4579,577 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="120.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110" style="7" customWidth="1"/>
+    <col min="4" max="4" width="120.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>105</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>108</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>109</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>111</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>112</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>113</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>114</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>115</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>116</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>117</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>120</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>122</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>123</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>125</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>126</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>127</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="7">
         <v>128</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="7">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>131</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="7">
         <v>132</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>133</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="7">
         <v>134</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>135</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="7">
         <v>136</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>137</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D39" t="s">
-        <v>124</v>
+      <c r="D39" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="7">
         <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="7">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="7">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="7">
         <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="7">
         <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="7">
         <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="7">
         <v>152</v>
       </c>
     </row>
@@ -5278,7 +5298,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">

--- a/project.xlsx
+++ b/project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
   <si>
     <t>TC Number</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Look at warning when signing up with Facebook.  Is there a different kind of UI it wants me to use?</t>
   </si>
   <si>
-    <t>Design testcases</t>
-  </si>
-  <si>
     <t>Copy automated on-server testing from fzachoval.com</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>Limit characters per word</t>
   </si>
   <si>
-    <t>Add production logging and find ways to analyze the log to derive numbrer of hits, etc.</t>
-  </si>
-  <si>
     <t>The entire UI needs to look better</t>
   </si>
   <si>
@@ -336,9 +330,6 @@
     <t>In the DB, each line should be associated with the UUID of the user who wrote it.  Will require new schema!</t>
   </si>
   <si>
-    <t>Might not care.  Path to resolution is unclear.</t>
-  </si>
-  <si>
     <t>User interface for viewing and managing own poems.  "My poems"</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>Remove all dev logging or have it switched on according to an env variable</t>
   </si>
   <si>
-    <t>Automation complete</t>
-  </si>
-  <si>
     <t>Set up client-side test automation</t>
   </si>
   <si>
@@ -372,21 +360,9 @@
     <t>JS Linter</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Create new account then log in / log out</t>
-  </si>
-  <si>
     <t>Create new poem with pre-existing account</t>
   </si>
   <si>
-    <t>Navigate to user management page with pre-exisitng admin account</t>
-  </si>
-  <si>
-    <t>While not logged in, view details of one poem then navigate to the homepage</t>
-  </si>
-  <si>
     <t>Feature not  implemented</t>
   </si>
   <si>
@@ -396,9 +372,6 @@
     <t>Basic log in / log out with pre-existing admin account.  View user admin page.</t>
   </si>
   <si>
-    <t>In progress with Selenium</t>
-  </si>
-  <si>
     <t>Poem details page should have buttons to share on social media</t>
   </si>
   <si>
@@ -406,6 +379,51 @@
   </si>
   <si>
     <t>Homepage should list poems in a table rather than displaying them as cards.  List should be sortable.</t>
+  </si>
+  <si>
+    <t>Should happen late in dev cycle</t>
+  </si>
+  <si>
+    <t>Might not care.  Path to resolution is unclear</t>
+  </si>
+  <si>
+    <t>Add production logging and find ways to analyze the log to derive number of hits, etc.</t>
+  </si>
+  <si>
+    <t>Implement Google Analytics or some similar tool</t>
+  </si>
+  <si>
+    <t>Automation complete in Selenium</t>
+  </si>
+  <si>
+    <t>Automation complete with Grunt</t>
+  </si>
+  <si>
+    <t>Automation has been set up but TCs are not complete and will be tracked on the TCs tab</t>
+  </si>
+  <si>
+    <t>Design initial testcases</t>
+  </si>
+  <si>
+    <t>Initial TCs designed.</t>
+  </si>
+  <si>
+    <t>Automation complete in Selenium and Katalon</t>
+  </si>
+  <si>
+    <t>Webdriver+Python</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Ensure unable to log in with invalid credentials.</t>
+  </si>
+  <si>
+    <t>Automation complete in Selenium, Katalon, and Webdriver+Python</t>
+  </si>
+  <si>
+    <t>Automation complete in Selenium, Katalon, and Webdriver+Python.  Webdriver implementation generates poem with random title and content (5 words per line).</t>
   </si>
 </sst>
 </file>
@@ -459,12 +477,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -489,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -502,6 +526,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -820,8 +846,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +950,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>68</v>
@@ -984,6 +1010,9 @@
       <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -992,19 +1021,22 @@
       <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>114</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>77</v>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1015,7 +1047,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1026,10 +1058,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,7 +1069,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1080,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1059,7 +1091,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,7 +1099,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,15 +1107,15 @@
         <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>122</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>85</v>
+      <c r="C23" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1123,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1102,7 +1134,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1145,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,7 +1153,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1161,7 @@
         <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1169,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,7 +1177,7 @@
         <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1185,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1193,7 @@
         <v>131</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1201,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1209,7 @@
         <v>133</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,15 +1217,18 @@
         <v>134</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>135</v>
       </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1236,7 @@
         <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,7 +1244,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1252,7 @@
         <v>138</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,21 +1260,21 @@
         <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>140</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1282,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,12 +1290,15 @@
         <v>142</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>143</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,8 +4617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,10 +4885,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,10 +4899,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,10 +4913,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,7 +4930,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4950,7 +4988,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,10 +5010,10 @@
         <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,10 +5024,10 @@
         <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,13 +5035,13 @@
         <v>131</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,10 +5049,13 @@
         <v>132</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5022,10 +5063,13 @@
         <v>133</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,10 +5077,13 @@
         <v>134</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,38 +5091,23 @@
         <v>135</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>136</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>137</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
   <si>
     <t>TC Number</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Edit both a poem created with the Facebook account and one created with a different account.    One poem with 5 WPL, one with 15.</t>
-  </si>
-  <si>
-    <t>Hide / delete a poem</t>
   </si>
   <si>
     <t>Type</t>
@@ -408,15 +405,9 @@
     <t>Initial TCs designed.</t>
   </si>
   <si>
-    <t>Automation complete in Selenium and Katalon</t>
-  </si>
-  <si>
     <t>Webdriver+Python</t>
   </si>
   <si>
-    <t>GUI</t>
-  </si>
-  <si>
     <t>Ensure unable to log in with invalid credentials.</t>
   </si>
   <si>
@@ -424,6 +415,33 @@
   </si>
   <si>
     <t>Automation complete in Selenium, Katalon, and Webdriver+Python.  Webdriver implementation generates poem with random title and content (5 words per line).</t>
+  </si>
+  <si>
+    <t>Hide a poem</t>
+  </si>
+  <si>
+    <t>Automated GUI</t>
+  </si>
+  <si>
+    <t>View details of a poem while not logged in</t>
+  </si>
+  <si>
+    <t>No edit or hide buttons present</t>
+  </si>
+  <si>
+    <t>View details of a poem while logged in as the author</t>
+  </si>
+  <si>
+    <t>Edit and hide buttons present</t>
+  </si>
+  <si>
+    <t>View details of a poem while logged as not the author</t>
+  </si>
+  <si>
+    <t>Edit button present</t>
+  </si>
+  <si>
+    <t>Automation complete in Selenium, Katalon, and Webdriver+Python.  Webdriver implementation generatees as many accounts as are found in a CSV file.</t>
   </si>
 </sst>
 </file>
@@ -513,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -528,6 +546,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -861,16 +880,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -878,10 +897,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -889,13 +908,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -903,13 +922,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -917,10 +936,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -928,10 +947,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -939,10 +958,10 @@
         <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,13 +969,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -964,10 +983,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -975,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -986,10 +1005,10 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -997,10 +1016,10 @@
         <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,10 +1027,10 @@
         <v>112</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,10 +1038,10 @@
         <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1030,13 +1049,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1044,10 +1063,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1055,13 +1074,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,7 +1088,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1077,10 +1096,10 @@
         <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1088,10 +1107,10 @@
         <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1118,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1126,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,7 +1134,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1142,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1131,10 +1150,10 @@
         <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1142,10 +1161,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1172,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1180,7 @@
         <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1188,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1196,7 @@
         <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1204,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,7 +1212,7 @@
         <v>131</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1220,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,7 +1228,7 @@
         <v>133</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1236,7 @@
         <v>134</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1225,10 +1244,10 @@
         <v>135</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1255,7 @@
         <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,7 +1263,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,7 +1271,7 @@
         <v>138</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,7 +1279,7 @@
         <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1268,13 +1287,13 @@
         <v>140</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1301,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1309,7 @@
         <v>142</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -4649,7 +4668,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -4663,7 +4682,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
@@ -4677,7 +4696,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -4691,7 +4710,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -4705,7 +4724,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
@@ -4719,7 +4738,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -4733,7 +4752,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -4744,7 +4763,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
@@ -4755,7 +4774,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>16</v>
@@ -4766,7 +4785,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -4777,7 +4796,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -4791,7 +4810,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -4805,10 +4824,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,10 +4835,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,10 +4846,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4838,10 +4857,10 @@
         <v>115</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,10 +4868,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,10 +4879,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,10 +4890,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,13 +4901,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4896,13 +4915,13 @@
         <v>120</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,13 +4929,13 @@
         <v>121</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,13 +4943,13 @@
         <v>122</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,10 +4957,10 @@
         <v>123</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,10 +4968,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,10 +4979,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,10 +4990,10 @@
         <v>126</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,13 +5001,13 @@
         <v>127</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,10 +5015,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +5026,13 @@
         <v>129</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,98 +5040,125 @@
         <v>130</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>131</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>127</v>
+      <c r="B33" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>132</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>133</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>127</v>
+      <c r="B35" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>134</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>127</v>
+      <c r="B36" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>135</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>127</v>
+      <c r="B37" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>136</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>137</v>
       </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>138</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,140 +5253,140 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
   <si>
     <t>TC Number</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Switching between dev and prod must switch TCP/IP port</t>
   </si>
   <si>
-    <t>Hide all but title, tail, and current line being edited when in edit mode</t>
-  </si>
-  <si>
     <t>Find a way to report on the MongoDB.  Ideally, automated emailed reports.</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>Implement Google Analytics or some similar tool</t>
   </si>
   <si>
-    <t>Automation complete in Selenium</t>
-  </si>
-  <si>
     <t>Automation complete with Grunt</t>
   </si>
   <si>
@@ -426,22 +420,34 @@
     <t>View details of a poem while not logged in</t>
   </si>
   <si>
-    <t>No edit or hide buttons present</t>
-  </si>
-  <si>
     <t>View details of a poem while logged in as the author</t>
   </si>
   <si>
-    <t>Edit and hide buttons present</t>
-  </si>
-  <si>
-    <t>View details of a poem while logged as not the author</t>
-  </si>
-  <si>
-    <t>Edit button present</t>
-  </si>
-  <si>
-    <t>Automation complete in Selenium, Katalon, and Webdriver+Python.  Webdriver implementation generatees as many accounts as are found in a CSV file.</t>
+    <t>Webdriver+Python.  Generatees as many accounts as are found in a CSV file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webdriver+Python </t>
+  </si>
+  <si>
+    <t>View details of a poem while logged in as not the author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit button present.  Webdriver+Python </t>
+  </si>
+  <si>
+    <t>Edit and hide buttons present.  Webdriver+Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No edit or hide buttons present.  Webdriver+Python </t>
+  </si>
+  <si>
+    <t>Used "paper" theme from https://bootswatch.com/</t>
+  </si>
+  <si>
+    <t>Hide all but title, tail, and previous line being edited when editing</t>
+  </si>
+  <si>
+    <t>Until a poem is complete, only the title and tail should be visibile on the homepage</t>
   </si>
 </sst>
 </file>
@@ -495,18 +501,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -544,9 +544,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -865,8 +867,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1032,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1052,10 +1054,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1088,7 +1090,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1126,7 +1128,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,15 +1136,21 @@
         <v>122</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>123</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1187,8 +1195,8 @@
       <c r="A29" s="3">
         <v>128</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
+      <c r="C29" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,7 +1204,7 @@
         <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1212,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1220,7 @@
         <v>131</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,7 +1228,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,7 +1236,7 @@
         <v>133</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1244,7 @@
         <v>134</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1255,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,7 +1263,7 @@
         <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1271,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,7 +1279,7 @@
         <v>138</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,7 +1287,7 @@
         <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1290,10 +1298,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1309,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,7 +1317,7 @@
         <v>142</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,12 +1325,15 @@
         <v>143</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>144</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,7 +4838,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,10 +4915,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4918,10 +4929,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4932,10 +4943,10 @@
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,7 +4960,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,7 +5018,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,10 +5040,10 @@
         <v>46</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,10 +5054,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,13 +5065,13 @@
         <v>131</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5068,13 +5079,13 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>127</v>
+        <v>107</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,13 +5093,13 @@
         <v>133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,13 +5107,13 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>136</v>
+        <v>109</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,13 +5121,13 @@
         <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,13 +5135,13 @@
         <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,13 +5149,13 @@
         <v>137</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>133</v>
+      <c r="D39" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,13 +5163,13 @@
         <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="143">
   <si>
     <t>TC Number</t>
   </si>
@@ -318,18 +318,12 @@
     <t>Admin interface for all poems</t>
   </si>
   <si>
-    <t>Admin interface for users needs paging and sorting</t>
-  </si>
-  <si>
     <t>In the DB, each line should be associated with the UUID of the user who wrote it.  Will require new schema!</t>
   </si>
   <si>
     <t>User interface for viewing and managing own poems.  "My poems"</t>
   </si>
   <si>
-    <t>When a poem is created, a user should be sent to the "My poems" page.</t>
-  </si>
-  <si>
     <t>Find a way to allow users to simply type a sentence and submit rather than filling in x number of text boxes.  Idea from Filip.</t>
   </si>
   <si>
@@ -447,7 +441,25 @@
     <t>Hide all but title, tail, and previous line being edited when editing</t>
   </si>
   <si>
-    <t>Until a poem is complete, only the title and tail should be visibile on the homepage</t>
+    <t>When a poem is created, a user should be sent to their "My poems" page.</t>
+  </si>
+  <si>
+    <t>Poem entry should have words on one line rather than stacked on top of each other</t>
+  </si>
+  <si>
+    <t>Until a poem is complete, only the title and tail should be visibile on the homepage and in edit view</t>
+  </si>
+  <si>
+    <t>Implement free-form text search of entire database of poems</t>
+  </si>
+  <si>
+    <t>Admin interface for users needs sorting</t>
+  </si>
+  <si>
+    <t>Duplicate of 142</t>
+  </si>
+  <si>
+    <t>dup</t>
   </si>
 </sst>
 </file>
@@ -868,7 +880,7 @@
   <dimension ref="A1:D704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1044,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1055,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1054,10 +1066,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1090,7 +1102,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1140,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,7 +1148,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1162,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1196,7 +1208,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,12 +1270,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>136</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>95</v>
+      <c r="B37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,15 +1289,15 @@
         <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>138</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>98</v>
+      <c r="C39" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,7 +1305,7 @@
         <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1298,10 +1316,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,23 +1327,30 @@
         <v>141</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>142</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C43" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>143</v>
       </c>
+      <c r="B44" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,19 +1361,31 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>145</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>146</v>
       </c>
+      <c r="C47" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>147</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -4838,7 +4875,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,10 +4952,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,10 +4966,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,10 +4980,10 @@
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,7 +4997,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,7 +5055,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,10 +5077,10 @@
         <v>46</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,10 +5091,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5065,13 +5102,13 @@
         <v>131</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,13 +5116,13 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,13 +5130,13 @@
         <v>133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,13 +5144,13 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,13 +5158,13 @@
         <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,13 +5172,13 @@
         <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,13 +5186,13 @@
         <v>137</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,13 +5200,13 @@
         <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
